--- a/data/homeownership/effects-by-age.xlsx
+++ b/data/homeownership/effects-by-age.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekung\projects\CSUN-Econ-433\data\homeownership\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C320C5CB-39F1-49F3-A427-6C16AF35B8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFAA7C9-E696-46DC-B3D6-2BB5D9141F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{036981C7-174F-48FE-A9DD-6EFF6B7ACFD3}"/>
   </bookViews>
@@ -144,7 +144,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -157,12 +157,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Estimated Homeownership</a:t>
+              <a:rPr lang="en-US" sz="1200" b="1"/>
+              <a:t>Figure 2: Predicted Homeownership</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t> Rate by Age*</a:t>
+              <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+              <a:t> Rate by Age</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -180,7 +180,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -449,217 +449,217 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>0.15200000000000002</c:v>
+                  <c:v>0.12488877178935677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17375000000000002</c:v>
+                  <c:v>0.14663877178935678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19499999999999995</c:v>
+                  <c:v>0.16788877178935671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21575</c:v>
+                  <c:v>0.18863877178935676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23599999999999999</c:v>
+                  <c:v>0.20888877178935675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25575000000000003</c:v>
+                  <c:v>0.22863877178935679</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>0.24788877178935681</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29374999999999996</c:v>
+                  <c:v>0.26663877178935669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.312</c:v>
+                  <c:v>0.28488877178935679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32974999999999999</c:v>
+                  <c:v>0.30263877178935678</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34699999999999998</c:v>
+                  <c:v>0.31988877178935671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36374999999999996</c:v>
+                  <c:v>0.33663877178935675</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38</c:v>
+                  <c:v>0.35288877178935674</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39575000000000005</c:v>
+                  <c:v>0.36863877178935678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41100000000000003</c:v>
+                  <c:v>0.38388877178935676</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.42575000000000007</c:v>
+                  <c:v>0.39863877178935681</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.44000000000000011</c:v>
+                  <c:v>0.4128887717893569</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45374999999999993</c:v>
+                  <c:v>0.42663877178935672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.46699999999999997</c:v>
+                  <c:v>0.4398887717893567</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.47975000000000001</c:v>
+                  <c:v>0.45263877178935674</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.49199999999999999</c:v>
+                  <c:v>0.46488877178935673</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.50374999999999992</c:v>
+                  <c:v>0.47663877178935676</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.51500000000000012</c:v>
+                  <c:v>0.48788877178935686</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.52575000000000016</c:v>
+                  <c:v>0.49863877178935689</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.53599999999999981</c:v>
+                  <c:v>0.50888877178935665</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.54574999999999996</c:v>
+                  <c:v>0.51863877178935669</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.55499999999999994</c:v>
+                  <c:v>0.52788877178935667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56374999999999997</c:v>
+                  <c:v>0.53663877178935671</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.57199999999999995</c:v>
+                  <c:v>0.54488877178935669</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.57974999999999999</c:v>
+                  <c:v>0.55263877178935683</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.58700000000000008</c:v>
+                  <c:v>0.55988877178935681</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.59375</c:v>
+                  <c:v>0.56663877178935684</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0.57288877178935693</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6057499999999999</c:v>
+                  <c:v>0.57863877178935663</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61099999999999988</c:v>
+                  <c:v>0.58388877178935661</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.61575000000000002</c:v>
+                  <c:v>0.58863877178935686</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.62</c:v>
+                  <c:v>0.59288877178935673</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.62374999999999992</c:v>
+                  <c:v>0.59663877178935665</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.627</c:v>
+                  <c:v>0.59988877178935684</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.62975000000000003</c:v>
+                  <c:v>0.60263877178935688</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.6319999999999999</c:v>
+                  <c:v>0.60488877178935674</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.63374999999999992</c:v>
+                  <c:v>0.60663877178935666</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.6349999999999999</c:v>
+                  <c:v>0.60788877178935663</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.63574999999999993</c:v>
+                  <c:v>0.60863877178935666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.63600000000000001</c:v>
+                  <c:v>0.60888877178935674</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.63575000000000015</c:v>
+                  <c:v>0.60863877178935688</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.63500000000000012</c:v>
+                  <c:v>0.60788877178935685</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.63374999999999992</c:v>
+                  <c:v>0.60663877178935666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.63200000000000001</c:v>
+                  <c:v>0.60488877178935674</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.62975000000000014</c:v>
+                  <c:v>0.60263877178935688</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.62700000000000011</c:v>
+                  <c:v>0.59988877178935684</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.62375000000000014</c:v>
+                  <c:v>0.59663877178935687</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.62000000000000022</c:v>
+                  <c:v>0.59288877178935695</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.61574999999999991</c:v>
+                  <c:v>0.58863877178935664</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.61099999999999988</c:v>
+                  <c:v>0.58388877178935661</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.6057499999999999</c:v>
+                  <c:v>0.57863877178935663</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.6</c:v>
+                  <c:v>0.57288877178935671</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.59375000000000011</c:v>
+                  <c:v>0.56663877178935684</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.58700000000000008</c:v>
+                  <c:v>0.55988877178935681</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.57974999999999988</c:v>
+                  <c:v>0.55263877178935661</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.57199999999999995</c:v>
+                  <c:v>0.54488877178935669</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.56375000000000008</c:v>
+                  <c:v>0.53663877178935682</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.55499999999999983</c:v>
+                  <c:v>0.52788877178935656</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.54574999999999985</c:v>
+                  <c:v>0.51863877178935658</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.53600000000000014</c:v>
+                  <c:v>0.50888877178935688</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.52575000000000027</c:v>
+                  <c:v>0.498638771789357</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.51500000000000024</c:v>
+                  <c:v>0.48788877178935697</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.50375000000000003</c:v>
+                  <c:v>0.47663877178935676</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.49199999999999966</c:v>
+                  <c:v>0.46488877178935639</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.47974999999999979</c:v>
+                  <c:v>0.45263877178935652</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.46699999999999997</c:v>
+                  <c:v>0.4398887717893567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,217 +918,217 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>0.13200000000000001</c:v>
+                  <c:v>0.12637953174393629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15044000000000002</c:v>
+                  <c:v>0.1448195317439363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16856000000000004</c:v>
+                  <c:v>0.16293953174393633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18636000000000008</c:v>
+                  <c:v>0.18073953174393637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20384000000000008</c:v>
+                  <c:v>0.19821953174393636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.221</c:v>
+                  <c:v>0.21537953174393629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23784000000000002</c:v>
+                  <c:v>0.23221953174393631</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25436000000000003</c:v>
+                  <c:v>0.24873953174393634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27056000000000008</c:v>
+                  <c:v>0.26493953174393636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28644000000000014</c:v>
+                  <c:v>0.28081953174393637</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.29637953174393628</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.31724000000000002</c:v>
+                  <c:v>0.31161953174393631</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33216000000000007</c:v>
+                  <c:v>0.3265395317439363</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.34676000000000007</c:v>
+                  <c:v>0.34113953174393635</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36104000000000008</c:v>
+                  <c:v>0.35541953174393642</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.375</c:v>
+                  <c:v>0.36937953174393628</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.38864000000000004</c:v>
+                  <c:v>0.38301953174393627</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40196000000000004</c:v>
+                  <c:v>0.39633953174393632</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.41496000000000005</c:v>
+                  <c:v>0.40933953174393639</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42764000000000008</c:v>
+                  <c:v>0.42201953174393636</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.44</c:v>
+                  <c:v>0.43437953174393629</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.45204000000000011</c:v>
+                  <c:v>0.44641953174393639</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.46376000000000006</c:v>
+                  <c:v>0.45813953174393635</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.47515999999999997</c:v>
+                  <c:v>0.46953953174393626</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.48624000000000012</c:v>
+                  <c:v>0.4806195317439364</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.497</c:v>
+                  <c:v>0.49137953174393628</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.50744000000000011</c:v>
+                  <c:v>0.50181953174393645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.51756000000000002</c:v>
+                  <c:v>0.51193953174393636</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.52736000000000016</c:v>
+                  <c:v>0.52173953174393639</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53683999999999998</c:v>
+                  <c:v>0.53121953174393632</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.54600000000000004</c:v>
+                  <c:v>0.54037953174393616</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.55484000000000022</c:v>
+                  <c:v>0.54921953174393634</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.56336000000000008</c:v>
+                  <c:v>0.5577395317439362</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.57156000000000007</c:v>
+                  <c:v>0.56593953174393641</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.57944000000000018</c:v>
+                  <c:v>0.5738195317439363</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.58699999999999997</c:v>
+                  <c:v>0.58137953174393631</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5942400000000001</c:v>
+                  <c:v>0.58861953174393644</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.60116000000000014</c:v>
+                  <c:v>0.59553953174393626</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.6077600000000003</c:v>
+                  <c:v>0.60213953174393642</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.61404000000000014</c:v>
+                  <c:v>0.60841953174393626</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.61999999999999988</c:v>
+                  <c:v>0.61437953174393622</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.6256400000000002</c:v>
+                  <c:v>0.62001953174393631</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.63095999999999997</c:v>
+                  <c:v>0.62533953174393631</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.6359600000000003</c:v>
+                  <c:v>0.63033953174393642</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.6406400000000001</c:v>
+                  <c:v>0.63501953174393622</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>0.63937953174393636</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.64904000000000006</c:v>
+                  <c:v>0.6434195317439364</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.65276000000000001</c:v>
+                  <c:v>0.64713953174393635</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.6561600000000003</c:v>
+                  <c:v>0.65053953174393642</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.65924000000000005</c:v>
+                  <c:v>0.65361953174393639</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.66199999999999992</c:v>
+                  <c:v>0.65637953174393626</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.66444000000000014</c:v>
+                  <c:v>0.65881953174393626</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.66656000000000004</c:v>
+                  <c:v>0.66093953174393616</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.66836000000000029</c:v>
+                  <c:v>0.66273953174393641</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.66983999999999999</c:v>
+                  <c:v>0.66421953174393633</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.67100000000000004</c:v>
+                  <c:v>0.66537953174393616</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.67184000000000021</c:v>
+                  <c:v>0.66621953174393633</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.67236000000000007</c:v>
+                  <c:v>0.66673953174393619</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.67256000000000005</c:v>
+                  <c:v>0.66693953174393639</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.67243999999999993</c:v>
+                  <c:v>0.66681953174393627</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.67199999999999993</c:v>
+                  <c:v>0.66637953174393627</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.67123999999999984</c:v>
+                  <c:v>0.66561953174393618</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.67016000000000009</c:v>
+                  <c:v>0.66453953174393643</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.66876000000000002</c:v>
+                  <c:v>0.66313953174393636</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.66704000000000008</c:v>
+                  <c:v>0.66141953174393642</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.66499999999999981</c:v>
+                  <c:v>0.65937953174393615</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.6626399999999999</c:v>
+                  <c:v>0.65701953174393624</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.65996000000000032</c:v>
+                  <c:v>0.65433953174393666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.65696000000000021</c:v>
+                  <c:v>0.65133953174393655</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.65364</c:v>
+                  <c:v>0.64801953174393634</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.64999999999999991</c:v>
+                  <c:v>0.64437953174393625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,6 +1174,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>Age</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1196,7 +1251,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1236,6 +1291,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>Predicted</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                  <a:t> Homewonership Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1258,7 +1373,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1286,7 +1401,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1300,7 +1415,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2256,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E67D1E9-0A94-4A28-A952-64B99AD9458B}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2476,7 @@
         <v>400</v>
       </c>
       <c r="E4">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2377,11 +2492,11 @@
       </c>
       <c r="J4">
         <f>$B$1+$C$1*C4+$D$1*D4/100+$E$1*LOG(E4)+$F$1*F4+$G$1*G4+$H$1*H4+$I$1*I4</f>
-        <v>0.15200000000000002</v>
+        <v>0.12488877178935677</v>
       </c>
       <c r="K4">
-        <f>$B$2+$C$2*C4+$D$2*D4/100+$E$2*LOG(E4)+$F$2*F4+$G$2*G4+$H$2*H4+$I$2*I4</f>
-        <v>0.13200000000000001</v>
+        <f>$B$2+$C$2*C4+$D$2*D4/100+$E$2*LOG(E4*3.29)+$F$2*F4+$G$2*G4+$H$2*H4+$I$2*I4</f>
+        <v>0.12637953174393629</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2393,7 +2508,7 @@
         <v>441</v>
       </c>
       <c r="E5">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2409,11 +2524,11 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J68" si="1">$B$1+$C$1*C5+$D$1*D5/100+$E$1*LOG(E5)+$F$1*F5+$G$1*G5+$H$1*H5+$I$1*I5</f>
-        <v>0.17375000000000002</v>
+        <v>0.14663877178935678</v>
       </c>
       <c r="K5">
-        <f>$B$2+$C$2*C5+$D$2*D5/100+$E$2*LOG(E5)+$F$2*F5+$G$2*G5+$H$2*H5+$I$2*I5</f>
-        <v>0.15044000000000002</v>
+        <f t="shared" ref="K5:K68" si="2">$B$2+$C$2*C5+$D$2*D5/100+$E$2*LOG(E5*3.29)+$F$2*F5+$G$2*G5+$H$2*H5+$I$2*I5</f>
+        <v>0.1448195317439363</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2425,7 +2540,7 @@
         <v>484</v>
       </c>
       <c r="E6">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2441,11 +2556,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0.19499999999999995</v>
+        <v>0.16788877178935671</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K69" si="2">$B$2+$C$2*C6+$D$2*D6/100+$E$2*LOG(E6)+$F$2*F6+$G$2*G6+$H$2*H6+$I$2*I6</f>
-        <v>0.16856000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.16293953174393633</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2457,7 +2572,7 @@
         <v>529</v>
       </c>
       <c r="E7">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2473,11 +2588,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>0.21575</v>
+        <v>0.18863877178935676</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>0.18636000000000008</v>
+        <v>0.18073953174393637</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2489,7 +2604,7 @@
         <v>576</v>
       </c>
       <c r="E8">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2505,11 +2620,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0.23599999999999999</v>
+        <v>0.20888877178935675</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>0.20384000000000008</v>
+        <v>0.19821953174393636</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2521,7 +2636,7 @@
         <v>625</v>
       </c>
       <c r="E9">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2537,11 +2652,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0.25575000000000003</v>
+        <v>0.22863877178935679</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>0.221</v>
+        <v>0.21537953174393629</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2553,7 +2668,7 @@
         <v>676</v>
       </c>
       <c r="E10">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2569,11 +2684,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>0.27500000000000002</v>
+        <v>0.24788877178935681</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0.23784000000000002</v>
+        <v>0.23221953174393631</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2585,7 +2700,7 @@
         <v>729</v>
       </c>
       <c r="E11">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2601,11 +2716,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>0.29374999999999996</v>
+        <v>0.26663877178935669</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>0.25436000000000003</v>
+        <v>0.24873953174393634</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2617,7 +2732,7 @@
         <v>784</v>
       </c>
       <c r="E12">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2633,11 +2748,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.312</v>
+        <v>0.28488877178935679</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>0.27056000000000008</v>
+        <v>0.26493953174393636</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2649,7 +2764,7 @@
         <v>841</v>
       </c>
       <c r="E13">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2665,11 +2780,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.32974999999999999</v>
+        <v>0.30263877178935678</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>0.28644000000000014</v>
+        <v>0.28081953174393637</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2681,7 +2796,7 @@
         <v>900</v>
       </c>
       <c r="E14">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2697,11 +2812,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.34699999999999998</v>
+        <v>0.31988877178935671</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>0.30199999999999999</v>
+        <v>0.29637953174393628</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2713,7 +2828,7 @@
         <v>961</v>
       </c>
       <c r="E15">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2729,11 +2844,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.36374999999999996</v>
+        <v>0.33663877178935675</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>0.31724000000000002</v>
+        <v>0.31161953174393631</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2745,7 +2860,7 @@
         <v>1024</v>
       </c>
       <c r="E16">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2761,11 +2876,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>0.38</v>
+        <v>0.35288877178935674</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>0.33216000000000007</v>
+        <v>0.3265395317439363</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
@@ -2777,7 +2892,7 @@
         <v>1089</v>
       </c>
       <c r="E17">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2793,11 +2908,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>0.39575000000000005</v>
+        <v>0.36863877178935678</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>0.34676000000000007</v>
+        <v>0.34113953174393635</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
@@ -2809,7 +2924,7 @@
         <v>1156</v>
       </c>
       <c r="E18">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2825,11 +2940,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>0.41100000000000003</v>
+        <v>0.38388877178935676</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>0.36104000000000008</v>
+        <v>0.35541953174393642</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
@@ -2841,7 +2956,7 @@
         <v>1225</v>
       </c>
       <c r="E19">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2857,11 +2972,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>0.42575000000000007</v>
+        <v>0.39863877178935681</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>0.375</v>
+        <v>0.36937953174393628</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
@@ -2873,7 +2988,7 @@
         <v>1296</v>
       </c>
       <c r="E20">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2889,11 +3004,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>0.44000000000000011</v>
+        <v>0.4128887717893569</v>
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>0.38864000000000004</v>
+        <v>0.38301953174393627</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
@@ -2905,7 +3020,7 @@
         <v>1369</v>
       </c>
       <c r="E21">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2921,11 +3036,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>0.45374999999999993</v>
+        <v>0.42663877178935672</v>
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>0.40196000000000004</v>
+        <v>0.39633953174393632</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
@@ -2937,7 +3052,7 @@
         <v>1444</v>
       </c>
       <c r="E22">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2953,11 +3068,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0.46699999999999997</v>
+        <v>0.4398887717893567</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>0.41496000000000005</v>
+        <v>0.40933953174393639</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
@@ -2969,7 +3084,7 @@
         <v>1521</v>
       </c>
       <c r="E23">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2985,11 +3100,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.47975000000000001</v>
+        <v>0.45263877178935674</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>0.42764000000000008</v>
+        <v>0.42201953174393636</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
@@ -3001,7 +3116,7 @@
         <v>1600</v>
       </c>
       <c r="E24">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3017,11 +3132,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>0.49199999999999999</v>
+        <v>0.46488877178935673</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.44</v>
+        <v>0.43437953174393629</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
@@ -3033,7 +3148,7 @@
         <v>1681</v>
       </c>
       <c r="E25">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3049,11 +3164,11 @@
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>0.50374999999999992</v>
+        <v>0.47663877178935676</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>0.45204000000000011</v>
+        <v>0.44641953174393639</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
@@ -3065,7 +3180,7 @@
         <v>1764</v>
       </c>
       <c r="E26">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3081,11 +3196,11 @@
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>0.51500000000000012</v>
+        <v>0.48788877178935686</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>0.46376000000000006</v>
+        <v>0.45813953174393635</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
@@ -3097,7 +3212,7 @@
         <v>1849</v>
       </c>
       <c r="E27">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3113,11 +3228,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>0.52575000000000016</v>
+        <v>0.49863877178935689</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>0.47515999999999997</v>
+        <v>0.46953953174393626</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
@@ -3129,7 +3244,7 @@
         <v>1936</v>
       </c>
       <c r="E28">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3145,11 +3260,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>0.53599999999999981</v>
+        <v>0.50888877178935665</v>
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
-        <v>0.48624000000000012</v>
+        <v>0.4806195317439364</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
@@ -3161,7 +3276,7 @@
         <v>2025</v>
       </c>
       <c r="E29">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -3177,11 +3292,11 @@
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>0.54574999999999996</v>
+        <v>0.51863877178935669</v>
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>0.497</v>
+        <v>0.49137953174393628</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
@@ -3193,7 +3308,7 @@
         <v>2116</v>
       </c>
       <c r="E30">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3209,11 +3324,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>0.55499999999999994</v>
+        <v>0.52788877178935667</v>
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
-        <v>0.50744000000000011</v>
+        <v>0.50181953174393645</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
@@ -3225,7 +3340,7 @@
         <v>2209</v>
       </c>
       <c r="E31">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3241,11 +3356,11 @@
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>0.56374999999999997</v>
+        <v>0.53663877178935671</v>
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
-        <v>0.51756000000000002</v>
+        <v>0.51193953174393636</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
@@ -3257,7 +3372,7 @@
         <v>2304</v>
       </c>
       <c r="E32">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3273,11 +3388,11 @@
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>0.57199999999999995</v>
+        <v>0.54488877178935669</v>
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
-        <v>0.52736000000000016</v>
+        <v>0.52173953174393639</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
@@ -3289,7 +3404,7 @@
         <v>2401</v>
       </c>
       <c r="E33">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3305,11 +3420,11 @@
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>0.57974999999999999</v>
+        <v>0.55263877178935683</v>
       </c>
       <c r="K33">
         <f t="shared" si="2"/>
-        <v>0.53683999999999998</v>
+        <v>0.53121953174393632</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
@@ -3321,7 +3436,7 @@
         <v>2500</v>
       </c>
       <c r="E34">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3337,11 +3452,11 @@
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>0.58700000000000008</v>
+        <v>0.55988877178935681</v>
       </c>
       <c r="K34">
         <f t="shared" si="2"/>
-        <v>0.54600000000000004</v>
+        <v>0.54037953174393616</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
@@ -3353,7 +3468,7 @@
         <v>2601</v>
       </c>
       <c r="E35">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3369,11 +3484,11 @@
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>0.59375</v>
+        <v>0.56663877178935684</v>
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
-        <v>0.55484000000000022</v>
+        <v>0.54921953174393634</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
@@ -3385,7 +3500,7 @@
         <v>2704</v>
       </c>
       <c r="E36">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3401,11 +3516,11 @@
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>0.57288877178935693</v>
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>0.56336000000000008</v>
+        <v>0.5577395317439362</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
@@ -3417,7 +3532,7 @@
         <v>2809</v>
       </c>
       <c r="E37">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3433,11 +3548,11 @@
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>0.6057499999999999</v>
+        <v>0.57863877178935663</v>
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>0.57156000000000007</v>
+        <v>0.56593953174393641</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
@@ -3449,7 +3564,7 @@
         <v>2916</v>
       </c>
       <c r="E38">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3465,11 +3580,11 @@
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>0.61099999999999988</v>
+        <v>0.58388877178935661</v>
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
-        <v>0.57944000000000018</v>
+        <v>0.5738195317439363</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
@@ -3481,7 +3596,7 @@
         <v>3025</v>
       </c>
       <c r="E39">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3497,11 +3612,11 @@
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>0.61575000000000002</v>
+        <v>0.58863877178935686</v>
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
-        <v>0.58699999999999997</v>
+        <v>0.58137953174393631</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
@@ -3513,7 +3628,7 @@
         <v>3136</v>
       </c>
       <c r="E40">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3529,11 +3644,11 @@
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>0.62</v>
+        <v>0.59288877178935673</v>
       </c>
       <c r="K40">
         <f t="shared" si="2"/>
-        <v>0.5942400000000001</v>
+        <v>0.58861953174393644</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
@@ -3545,7 +3660,7 @@
         <v>3249</v>
       </c>
       <c r="E41">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3561,11 +3676,11 @@
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>0.62374999999999992</v>
+        <v>0.59663877178935665</v>
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
-        <v>0.60116000000000014</v>
+        <v>0.59553953174393626</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
@@ -3577,7 +3692,7 @@
         <v>3364</v>
       </c>
       <c r="E42">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3593,11 +3708,11 @@
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>0.627</v>
+        <v>0.59988877178935684</v>
       </c>
       <c r="K42">
         <f t="shared" si="2"/>
-        <v>0.6077600000000003</v>
+        <v>0.60213953174393642</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
@@ -3609,7 +3724,7 @@
         <v>3481</v>
       </c>
       <c r="E43">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3625,11 +3740,11 @@
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>0.62975000000000003</v>
+        <v>0.60263877178935688</v>
       </c>
       <c r="K43">
         <f t="shared" si="2"/>
-        <v>0.61404000000000014</v>
+        <v>0.60841953174393626</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
@@ -3641,7 +3756,7 @@
         <v>3600</v>
       </c>
       <c r="E44">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3657,11 +3772,11 @@
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>0.6319999999999999</v>
+        <v>0.60488877178935674</v>
       </c>
       <c r="K44">
         <f t="shared" si="2"/>
-        <v>0.61999999999999988</v>
+        <v>0.61437953174393622</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
@@ -3673,7 +3788,7 @@
         <v>3721</v>
       </c>
       <c r="E45">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3689,11 +3804,11 @@
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>0.63374999999999992</v>
+        <v>0.60663877178935666</v>
       </c>
       <c r="K45">
         <f t="shared" si="2"/>
-        <v>0.6256400000000002</v>
+        <v>0.62001953174393631</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
@@ -3705,7 +3820,7 @@
         <v>3844</v>
       </c>
       <c r="E46">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3721,11 +3836,11 @@
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>0.6349999999999999</v>
+        <v>0.60788877178935663</v>
       </c>
       <c r="K46">
         <f t="shared" si="2"/>
-        <v>0.63095999999999997</v>
+        <v>0.62533953174393631</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
@@ -3737,7 +3852,7 @@
         <v>3969</v>
       </c>
       <c r="E47">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3753,11 +3868,11 @@
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>0.63574999999999993</v>
+        <v>0.60863877178935666</v>
       </c>
       <c r="K47">
         <f t="shared" si="2"/>
-        <v>0.6359600000000003</v>
+        <v>0.63033953174393642</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
@@ -3769,7 +3884,7 @@
         <v>4096</v>
       </c>
       <c r="E48">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3785,11 +3900,11 @@
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>0.63600000000000001</v>
+        <v>0.60888877178935674</v>
       </c>
       <c r="K48">
         <f t="shared" si="2"/>
-        <v>0.6406400000000001</v>
+        <v>0.63501953174393622</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
@@ -3801,7 +3916,7 @@
         <v>4225</v>
       </c>
       <c r="E49">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3817,11 +3932,11 @@
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>0.63575000000000015</v>
+        <v>0.60863877178935688</v>
       </c>
       <c r="K49">
         <f t="shared" si="2"/>
-        <v>0.64500000000000002</v>
+        <v>0.63937953174393636</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
@@ -3833,7 +3948,7 @@
         <v>4356</v>
       </c>
       <c r="E50">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3849,11 +3964,11 @@
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>0.63500000000000012</v>
+        <v>0.60788877178935685</v>
       </c>
       <c r="K50">
         <f t="shared" si="2"/>
-        <v>0.64904000000000006</v>
+        <v>0.6434195317439364</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
@@ -3865,7 +3980,7 @@
         <v>4489</v>
       </c>
       <c r="E51">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3881,11 +3996,11 @@
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>0.63374999999999992</v>
+        <v>0.60663877178935666</v>
       </c>
       <c r="K51">
         <f t="shared" si="2"/>
-        <v>0.65276000000000001</v>
+        <v>0.64713953174393635</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
@@ -3897,7 +4012,7 @@
         <v>4624</v>
       </c>
       <c r="E52">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3913,11 +4028,11 @@
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>0.63200000000000001</v>
+        <v>0.60488877178935674</v>
       </c>
       <c r="K52">
         <f t="shared" si="2"/>
-        <v>0.6561600000000003</v>
+        <v>0.65053953174393642</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
@@ -3929,7 +4044,7 @@
         <v>4761</v>
       </c>
       <c r="E53">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3945,11 +4060,11 @@
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>0.62975000000000014</v>
+        <v>0.60263877178935688</v>
       </c>
       <c r="K53">
         <f t="shared" si="2"/>
-        <v>0.65924000000000005</v>
+        <v>0.65361953174393639</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
@@ -3961,7 +4076,7 @@
         <v>4900</v>
       </c>
       <c r="E54">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -3977,11 +4092,11 @@
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>0.62700000000000011</v>
+        <v>0.59988877178935684</v>
       </c>
       <c r="K54">
         <f t="shared" si="2"/>
-        <v>0.66199999999999992</v>
+        <v>0.65637953174393626</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
@@ -3993,7 +4108,7 @@
         <v>5041</v>
       </c>
       <c r="E55">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4009,11 +4124,11 @@
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>0.62375000000000014</v>
+        <v>0.59663877178935687</v>
       </c>
       <c r="K55">
         <f t="shared" si="2"/>
-        <v>0.66444000000000014</v>
+        <v>0.65881953174393626</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
@@ -4025,7 +4140,7 @@
         <v>5184</v>
       </c>
       <c r="E56">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -4041,11 +4156,11 @@
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>0.62000000000000022</v>
+        <v>0.59288877178935695</v>
       </c>
       <c r="K56">
         <f t="shared" si="2"/>
-        <v>0.66656000000000004</v>
+        <v>0.66093953174393616</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
@@ -4057,7 +4172,7 @@
         <v>5329</v>
       </c>
       <c r="E57">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -4073,11 +4188,11 @@
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>0.61574999999999991</v>
+        <v>0.58863877178935664</v>
       </c>
       <c r="K57">
         <f t="shared" si="2"/>
-        <v>0.66836000000000029</v>
+        <v>0.66273953174393641</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
@@ -4089,7 +4204,7 @@
         <v>5476</v>
       </c>
       <c r="E58">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4105,11 +4220,11 @@
       </c>
       <c r="J58">
         <f t="shared" si="1"/>
-        <v>0.61099999999999988</v>
+        <v>0.58388877178935661</v>
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
-        <v>0.66983999999999999</v>
+        <v>0.66421953174393633</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
@@ -4121,7 +4236,7 @@
         <v>5625</v>
       </c>
       <c r="E59">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -4137,11 +4252,11 @@
       </c>
       <c r="J59">
         <f t="shared" si="1"/>
-        <v>0.6057499999999999</v>
+        <v>0.57863877178935663</v>
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
-        <v>0.67100000000000004</v>
+        <v>0.66537953174393616</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
@@ -4153,7 +4268,7 @@
         <v>5776</v>
       </c>
       <c r="E60">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4169,11 +4284,11 @@
       </c>
       <c r="J60">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.57288877178935671</v>
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
-        <v>0.67184000000000021</v>
+        <v>0.66621953174393633</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
@@ -4185,7 +4300,7 @@
         <v>5929</v>
       </c>
       <c r="E61">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -4201,11 +4316,11 @@
       </c>
       <c r="J61">
         <f t="shared" si="1"/>
-        <v>0.59375000000000011</v>
+        <v>0.56663877178935684</v>
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>0.67236000000000007</v>
+        <v>0.66673953174393619</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
@@ -4217,7 +4332,7 @@
         <v>6084</v>
       </c>
       <c r="E62">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -4233,11 +4348,11 @@
       </c>
       <c r="J62">
         <f t="shared" si="1"/>
-        <v>0.58700000000000008</v>
+        <v>0.55988877178935681</v>
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
-        <v>0.67256000000000005</v>
+        <v>0.66693953174393639</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
@@ -4249,7 +4364,7 @@
         <v>6241</v>
       </c>
       <c r="E63">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -4265,11 +4380,11 @@
       </c>
       <c r="J63">
         <f t="shared" si="1"/>
-        <v>0.57974999999999988</v>
+        <v>0.55263877178935661</v>
       </c>
       <c r="K63">
         <f t="shared" si="2"/>
-        <v>0.67243999999999993</v>
+        <v>0.66681953174393627</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
@@ -4281,7 +4396,7 @@
         <v>6400</v>
       </c>
       <c r="E64">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4297,11 +4412,11 @@
       </c>
       <c r="J64">
         <f t="shared" si="1"/>
-        <v>0.57199999999999995</v>
+        <v>0.54488877178935669</v>
       </c>
       <c r="K64">
         <f t="shared" si="2"/>
-        <v>0.67199999999999993</v>
+        <v>0.66637953174393627</v>
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
@@ -4313,7 +4428,7 @@
         <v>6561</v>
       </c>
       <c r="E65">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -4329,11 +4444,11 @@
       </c>
       <c r="J65">
         <f t="shared" si="1"/>
-        <v>0.56375000000000008</v>
+        <v>0.53663877178935682</v>
       </c>
       <c r="K65">
         <f t="shared" si="2"/>
-        <v>0.67123999999999984</v>
+        <v>0.66561953174393618</v>
       </c>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
@@ -4345,7 +4460,7 @@
         <v>6724</v>
       </c>
       <c r="E66">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -4361,11 +4476,11 @@
       </c>
       <c r="J66">
         <f t="shared" si="1"/>
-        <v>0.55499999999999983</v>
+        <v>0.52788877178935656</v>
       </c>
       <c r="K66">
         <f t="shared" si="2"/>
-        <v>0.67016000000000009</v>
+        <v>0.66453953174393643</v>
       </c>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
@@ -4377,7 +4492,7 @@
         <v>6889</v>
       </c>
       <c r="E67">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -4393,11 +4508,11 @@
       </c>
       <c r="J67">
         <f t="shared" si="1"/>
-        <v>0.54574999999999985</v>
+        <v>0.51863877178935658</v>
       </c>
       <c r="K67">
         <f t="shared" si="2"/>
-        <v>0.66876000000000002</v>
+        <v>0.66313953174393636</v>
       </c>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.25">
@@ -4409,7 +4524,7 @@
         <v>7056</v>
       </c>
       <c r="E68">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -4425,11 +4540,11 @@
       </c>
       <c r="J68">
         <f t="shared" si="1"/>
-        <v>0.53600000000000014</v>
+        <v>0.50888877178935688</v>
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>0.66704000000000008</v>
+        <v>0.66141953174393642</v>
       </c>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.25">
@@ -4441,7 +4556,7 @@
         <v>7225</v>
       </c>
       <c r="E69">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -4457,11 +4572,11 @@
       </c>
       <c r="J69">
         <f t="shared" ref="J69:J74" si="4">$B$1+$C$1*C69+$D$1*D69/100+$E$1*LOG(E69)+$F$1*F69+$G$1*G69+$H$1*H69+$I$1*I69</f>
-        <v>0.52575000000000027</v>
+        <v>0.498638771789357</v>
       </c>
       <c r="K69">
-        <f t="shared" si="2"/>
-        <v>0.66499999999999981</v>
+        <f t="shared" ref="K69:K74" si="5">$B$2+$C$2*C69+$D$2*D69/100+$E$2*LOG(E69*3.29)+$F$2*F69+$G$2*G69+$H$2*H69+$I$2*I69</f>
+        <v>0.65937953174393615</v>
       </c>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.25">
@@ -4473,7 +4588,7 @@
         <v>7396</v>
       </c>
       <c r="E70">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -4489,11 +4604,11 @@
       </c>
       <c r="J70">
         <f t="shared" si="4"/>
-        <v>0.51500000000000024</v>
+        <v>0.48788877178935697</v>
       </c>
       <c r="K70">
-        <f t="shared" ref="K70:K74" si="5">$B$2+$C$2*C70+$D$2*D70/100+$E$2*LOG(E70)+$F$2*F70+$G$2*G70+$H$2*H70+$I$2*I70</f>
-        <v>0.6626399999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.65701953174393624</v>
       </c>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.25">
@@ -4505,7 +4620,7 @@
         <v>7569</v>
       </c>
       <c r="E71">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -4521,11 +4636,11 @@
       </c>
       <c r="J71">
         <f t="shared" si="4"/>
-        <v>0.50375000000000003</v>
+        <v>0.47663877178935676</v>
       </c>
       <c r="K71">
         <f t="shared" si="5"/>
-        <v>0.65996000000000032</v>
+        <v>0.65433953174393666</v>
       </c>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.25">
@@ -4537,7 +4652,7 @@
         <v>7744</v>
       </c>
       <c r="E72">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -4553,11 +4668,11 @@
       </c>
       <c r="J72">
         <f t="shared" si="4"/>
-        <v>0.49199999999999966</v>
+        <v>0.46488877178935639</v>
       </c>
       <c r="K72">
         <f t="shared" si="5"/>
-        <v>0.65696000000000021</v>
+        <v>0.65133953174393655</v>
       </c>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.25">
@@ -4569,7 +4684,7 @@
         <v>7921</v>
       </c>
       <c r="E73">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4585,11 +4700,11 @@
       </c>
       <c r="J73">
         <f t="shared" si="4"/>
-        <v>0.47974999999999979</v>
+        <v>0.45263877178935652</v>
       </c>
       <c r="K73">
         <f t="shared" si="5"/>
-        <v>0.65364</v>
+        <v>0.64801953174393634</v>
       </c>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
@@ -4601,7 +4716,7 @@
         <v>8100</v>
       </c>
       <c r="E74">
-        <v>100000</v>
+        <v>21000</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -4617,11 +4732,11 @@
       </c>
       <c r="J74">
         <f t="shared" si="4"/>
-        <v>0.46699999999999997</v>
+        <v>0.4398887717893567</v>
       </c>
       <c r="K74">
         <f t="shared" si="5"/>
-        <v>0.64999999999999991</v>
+        <v>0.64437953174393625</v>
       </c>
     </row>
   </sheetData>
